--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Serpinf1-Plxdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Serpinf1-Plxdc2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.220712</v>
+        <v>0.432712</v>
       </c>
       <c r="H2">
-        <v>6.662135999999999</v>
+        <v>1.298136</v>
       </c>
       <c r="I2">
-        <v>0.004164179109543329</v>
+        <v>0.0008141316526434356</v>
       </c>
       <c r="J2">
-        <v>0.00416417910954333</v>
+        <v>0.0008141316526434357</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.086735333333333</v>
+        <v>1.208291666666667</v>
       </c>
       <c r="N2">
-        <v>3.260206</v>
+        <v>3.624875</v>
       </c>
       <c r="O2">
-        <v>0.007520028150622985</v>
+        <v>0.008354150712665433</v>
       </c>
       <c r="P2">
-        <v>0.007520028150622985</v>
+        <v>0.008354150712665433</v>
       </c>
       <c r="Q2">
-        <v>2.413326195557333</v>
+        <v>0.5228423036666666</v>
       </c>
       <c r="R2">
-        <v>21.719935760016</v>
+        <v>4.705580733</v>
       </c>
       <c r="S2">
-        <v>3.131474412800199E-05</v>
+        <v>6.801378526134644E-06</v>
       </c>
       <c r="T2">
-        <v>3.131474412800199E-05</v>
+        <v>6.801378526134644E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.220712</v>
+        <v>0.432712</v>
       </c>
       <c r="H3">
-        <v>6.662135999999999</v>
+        <v>1.298136</v>
       </c>
       <c r="I3">
-        <v>0.004164179109543329</v>
+        <v>0.0008141316526434356</v>
       </c>
       <c r="J3">
-        <v>0.00416417910954333</v>
+        <v>0.0008141316526434357</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>373.603691</v>
       </c>
       <c r="O3">
-        <v>0.8617585126512408</v>
+        <v>0.8610342539872649</v>
       </c>
       <c r="P3">
-        <v>0.8617585126512408</v>
+        <v>0.8610342539872649</v>
       </c>
       <c r="Q3">
-        <v>276.5553999493306</v>
+        <v>53.88760011333067</v>
       </c>
       <c r="R3">
-        <v>2488.998599543976</v>
+        <v>484.988401019976</v>
       </c>
       <c r="S3">
-        <v>0.003588516795853427</v>
+        <v>0.0007009952401812596</v>
       </c>
       <c r="T3">
-        <v>0.003588516795853428</v>
+        <v>0.0007009952401812597</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.220712</v>
+        <v>0.432712</v>
       </c>
       <c r="H4">
-        <v>6.662135999999999</v>
+        <v>1.298136</v>
       </c>
       <c r="I4">
-        <v>0.004164179109543329</v>
+        <v>0.0008141316526434356</v>
       </c>
       <c r="J4">
-        <v>0.00416417910954333</v>
+        <v>0.0008141316526434357</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>56.672512</v>
       </c>
       <c r="O4">
-        <v>0.1307214591981362</v>
+        <v>0.1306115953000698</v>
       </c>
       <c r="P4">
-        <v>0.1307214591981362</v>
+        <v>0.1306115953000697</v>
       </c>
       <c r="Q4">
-        <v>41.95110915618133</v>
+        <v>8.174292004181334</v>
       </c>
       <c r="R4">
-        <v>377.559982405632</v>
+        <v>73.568628037632</v>
       </c>
       <c r="S4">
-        <v>0.0005443475695618995</v>
+        <v>0.0001063350339360414</v>
       </c>
       <c r="T4">
-        <v>0.0005443475695618995</v>
+        <v>0.0001063350339360414</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1583.403657</v>
       </c>
       <c r="I5">
-        <v>0.9897090708526379</v>
+        <v>0.9930385075793827</v>
       </c>
       <c r="J5">
-        <v>0.9897090708526382</v>
+        <v>0.9930385075793827</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.086735333333333</v>
+        <v>1.208291666666667</v>
       </c>
       <c r="N5">
-        <v>3.260206</v>
+        <v>3.624875</v>
       </c>
       <c r="O5">
-        <v>0.007520028150622985</v>
+        <v>0.008354150712665433</v>
       </c>
       <c r="P5">
-        <v>0.007520028150622985</v>
+        <v>0.008354150712665433</v>
       </c>
       <c r="Q5">
-        <v>573.5802336637047</v>
+        <v>637.7378145742082</v>
       </c>
       <c r="R5">
-        <v>5162.222102973342</v>
+        <v>5739.640331167874</v>
       </c>
       <c r="S5">
-        <v>0.007442640073738756</v>
+        <v>0.008295993355798519</v>
       </c>
       <c r="T5">
-        <v>0.007442640073738758</v>
+        <v>0.008295993355798519</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1583.403657</v>
       </c>
       <c r="I6">
-        <v>0.9897090708526379</v>
+        <v>0.9930385075793827</v>
       </c>
       <c r="J6">
-        <v>0.9897090708526382</v>
+        <v>0.9930385075793827</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>373.603691</v>
       </c>
       <c r="O6">
-        <v>0.8617585126512408</v>
+        <v>0.8610342539872649</v>
       </c>
       <c r="P6">
-        <v>0.8617585126512408</v>
+        <v>0.8610342539872649</v>
       </c>
       <c r="Q6">
         <v>65729.49451089978</v>
@@ -818,10 +818,10 @@
         <v>591565.450598098</v>
       </c>
       <c r="S6">
-        <v>0.8528902168554108</v>
+        <v>0.8550401705542406</v>
       </c>
       <c r="T6">
-        <v>0.852890216855411</v>
+        <v>0.8550401705542406</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1583.403657</v>
       </c>
       <c r="I7">
-        <v>0.9897090708526379</v>
+        <v>0.9930385075793827</v>
       </c>
       <c r="J7">
-        <v>0.9897090708526382</v>
+        <v>0.9930385075793827</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>56.672512</v>
       </c>
       <c r="O7">
-        <v>0.1307214591981362</v>
+        <v>0.1306115953000698</v>
       </c>
       <c r="P7">
-        <v>0.1307214591981362</v>
+        <v>0.1306115953000697</v>
       </c>
       <c r="Q7">
         <v>9970.606972464042</v>
@@ -880,10 +880,10 @@
         <v>89735.46275217638</v>
       </c>
       <c r="S7">
-        <v>0.1293762139234884</v>
+        <v>0.1297023436693436</v>
       </c>
       <c r="T7">
-        <v>0.1293762139234884</v>
+        <v>0.1297023436693436</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>9.80199</v>
       </c>
       <c r="I8">
-        <v>0.006126750037818593</v>
+        <v>0.006147360767973794</v>
       </c>
       <c r="J8">
-        <v>0.006126750037818595</v>
+        <v>0.006147360767973795</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.086735333333333</v>
+        <v>1.208291666666667</v>
       </c>
       <c r="N8">
-        <v>3.260206</v>
+        <v>3.624875</v>
       </c>
       <c r="O8">
-        <v>0.007520028150622985</v>
+        <v>0.008354150712665433</v>
       </c>
       <c r="P8">
-        <v>0.007520028150622985</v>
+        <v>0.008354150712665433</v>
       </c>
       <c r="Q8">
-        <v>3.55072295666</v>
+        <v>3.947887611249999</v>
       </c>
       <c r="R8">
-        <v>31.95650660994</v>
+        <v>35.53098850125</v>
       </c>
       <c r="S8">
-        <v>4.607333275622626E-05</v>
+        <v>5.135597834077979E-05</v>
       </c>
       <c r="T8">
-        <v>4.607333275622627E-05</v>
+        <v>5.13559783407798E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>9.80199</v>
       </c>
       <c r="I9">
-        <v>0.006126750037818593</v>
+        <v>0.006147360767973794</v>
       </c>
       <c r="J9">
-        <v>0.006126750037818595</v>
+        <v>0.006147360767973795</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>373.603691</v>
       </c>
       <c r="O9">
-        <v>0.8617585126512408</v>
+        <v>0.8610342539872649</v>
       </c>
       <c r="P9">
-        <v>0.8617585126512408</v>
+        <v>0.8610342539872649</v>
       </c>
       <c r="Q9">
         <v>406.89551590501</v>
@@ -1004,10 +1004,10 @@
         <v>3662.05964314509</v>
       </c>
       <c r="S9">
-        <v>0.005279778999976484</v>
+        <v>0.005293088192842895</v>
       </c>
       <c r="T9">
-        <v>0.005279778999976486</v>
+        <v>0.005293088192842896</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>9.80199</v>
       </c>
       <c r="I10">
-        <v>0.006126750037818593</v>
+        <v>0.006147360767973794</v>
       </c>
       <c r="J10">
-        <v>0.006126750037818595</v>
+        <v>0.006147360767973795</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>56.672512</v>
       </c>
       <c r="O10">
-        <v>0.1307214591981362</v>
+        <v>0.1306115953000698</v>
       </c>
       <c r="P10">
-        <v>0.1307214591981362</v>
+        <v>0.1306115953000697</v>
       </c>
       <c r="Q10">
         <v>61.72259954432</v>
@@ -1066,10 +1066,10 @@
         <v>555.5033958988799</v>
       </c>
       <c r="S10">
-        <v>0.0008008977050858829</v>
+        <v>0.0008029165967901193</v>
       </c>
       <c r="T10">
-        <v>0.000800897705085883</v>
+        <v>0.0008029165967901193</v>
       </c>
     </row>
   </sheetData>
